--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T08:08:15+00:00</t>
+    <t>2023-02-07T13:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T13:02:45+00:00</t>
+    <t>2023-02-07T15:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T15:19:32+00:00</t>
+    <t>2023-02-08T12:09:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:09:05+00:00</t>
+    <t>2023-02-08T14:26:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T14:26:19+00:00</t>
+    <t>2023-02-08T15:31:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T15:31:30+00:00</t>
+    <t>2023-02-09T07:17:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T07:17:47+00:00</t>
+    <t>2023-02-09T10:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
